--- a/output.xlsx
+++ b/output.xlsx
@@ -509,17 +509,19 @@
           <t>saydeemcgee@gmail.com</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>81517159585.0</t>
-        </is>
+      <c r="G2" t="n">
+        <v>81517159585</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>mqefw</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
